--- a/medicine/Œil et vue/Prescription_optique/Prescription_optique.xlsx
+++ b/medicine/Œil et vue/Prescription_optique/Prescription_optique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une prescription optique est une ordonnance rédigée par un professionnel de la vision, comme un ophtalmologiste (en France) ou par un optométriste (dans les pays anglo-saxons ou en Belgique), qui indique la valeur de tous les paramètres que le prescripteur juge nécessaires pour la réalisation d'un équipement en verres correcteurs pour un patient.
 Si l'examen de vue indique que des verres correcteurs sont justifiés et nécessaires, le prescripteur rédige généralement une ordonnance avec prescription d'un équipement optique.
@@ -519,7 +531,9 @@
           <t>Abréviations et termes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tout comme une prescription médicale, les ordonnances optiques sont rédigées avec de nombreuses abréviations et différents termes:
 VL est une abréviation pour vision de loin. Cela désigne la correction nécessaire pour améliorer la vision au loin.
@@ -564,13 +578,15 @@
           <t>Rappels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vision floue est le ressenti subjectif ou la perception d'une défocalisation par l'œil. Le flou peut apparaître différemment selon l'importance et le type d'amétropie. La vision floue se corrige en focalisant de la lumière sur la rétine par l'utilisation de verres optiques correcteurs ou de lentilles de contact, ou en ayant recours à la chirurgie réfractive qui modifie la forme de la cornée.
 Les verres correcteurs ont parfois des effets indésirables comme la magnification, la diminution, la distorsion des images, la présence d'anneaux colorés, la modification du sens de la profondeur, etc. Les verres améliorent la vision tout d'abord en réduisant le flou.
-L'acuité visuelle (AV) est la capacité à voir distinctement les détails d'un objet et est mesurée par une échelle d'acuité. L'échelle d'acuité, ou table d'optotypes, est l'outil utilisé par les professionnels de la vision pour comparer l'acuité visuelle du patient avec celle d'un autre individu. Bien que de nombreuses échelles d'acuité existent, les plus utilisées en France sont l'échelle Monoyer pour la Vision de Loin et l'échelle Parinaud pour la Vision de Près. D'autres optotypes courants sont les anneaux de l'échelle Landolt et l'échelle de Snellen, qui a été développée par un optométriste néerlandais Hermann Snellen (en) dans les années 1860[1]. D'habitude ces échelles présentent 11 rangées de lettres en majuscules et la première rangée ne comporte qu'une seule lettre et les autres rangées comportent des lettres qui sont de taille de plus en plus petite.
-Avec les personnes dans l'incapacité de lire les lettres, pour diverses raisons, comme les enfants encore non scolarisés, ou qui ne connaissent pas l'alphabet ou qui ont un handicap, les professionnels de la vision peuvent utiliser l'échelle de Snellen dite « Trident de Snellen », qui montre la lettre « E » en majuscules, dans diverses tailles et orientée par paliers de 90 degrés. Dans ce cas, le réfractionniste demandera au patient d'utiliser sa main (avec les doigts tendus) pour indiquer la direction dans laquelle les « doigts » du « E » pointent: droite, gauche, en haut, en bas[1]. mais aussi l'échelle de Monoyer pour enfants, comportant des dessins d'animaux.
-Une acuité visuelle moyenne varie entre 12/10 et 10/10. Peu d'individus ont 20/10 ou plus d'acuité visuelle, contrairement à beaucoup d'animaux, spécialement les oiseaux de proie, dont l'AV est estimée à 20/5 ou mieux[1].
+L'acuité visuelle (AV) est la capacité à voir distinctement les détails d'un objet et est mesurée par une échelle d'acuité. L'échelle d'acuité, ou table d'optotypes, est l'outil utilisé par les professionnels de la vision pour comparer l'acuité visuelle du patient avec celle d'un autre individu. Bien que de nombreuses échelles d'acuité existent, les plus utilisées en France sont l'échelle Monoyer pour la Vision de Loin et l'échelle Parinaud pour la Vision de Près. D'autres optotypes courants sont les anneaux de l'échelle Landolt et l'échelle de Snellen, qui a été développée par un optométriste néerlandais Hermann Snellen (en) dans les années 1860. D'habitude ces échelles présentent 11 rangées de lettres en majuscules et la première rangée ne comporte qu'une seule lettre et les autres rangées comportent des lettres qui sont de taille de plus en plus petite.
+Avec les personnes dans l'incapacité de lire les lettres, pour diverses raisons, comme les enfants encore non scolarisés, ou qui ne connaissent pas l'alphabet ou qui ont un handicap, les professionnels de la vision peuvent utiliser l'échelle de Snellen dite « Trident de Snellen », qui montre la lettre « E » en majuscules, dans diverses tailles et orientée par paliers de 90 degrés. Dans ce cas, le réfractionniste demandera au patient d'utiliser sa main (avec les doigts tendus) pour indiquer la direction dans laquelle les « doigts » du « E » pointent: droite, gauche, en haut, en bas. mais aussi l'échelle de Monoyer pour enfants, comportant des dessins d'animaux.
+Une acuité visuelle moyenne varie entre 12/10 et 10/10. Peu d'individus ont 20/10 ou plus d'acuité visuelle, contrairement à beaucoup d'animaux, spécialement les oiseaux de proie, dont l'AV est estimée à 20/5 ou mieux.
 Les échelles ne donnent pas d'information sur la vision périphérique, la perception de profondeur ou la perception des couleurs et de fait sont insuffisantes pour qualifier la vision, ou évaluer la santé oculaire. Un examen de vue complet inclura d'autres tests. Cependant les échelles d'acuité sont utiles pour décider quel patient a besoin de verres correcteurs ou de lentilles de contact et évaluer quelle est la correction effective nécessaire.
 </t>
         </is>
@@ -600,14 +616,16 @@
           <t>Puissance du verre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un œil humain standard sans anomalie de réfraction (= emmétrope) a une puissance réfractive d'environ 60 dioptries.
 Les valeurs exprimées dans les colonnes sphère et cylindre spécifient la puissance optique des verres en dioptries, en abrégé « D ». Plus le nombre de dioptries est élevé, plus le verre fait converger ou diverger la lumière. Une dioptrie (D) est l'inverse de la longueur focale en mètres. Si un verre a une longueur focale de 1⁄3 mètres, alors le verre a une puissance de 3 dioptries.
 Les verres peuvent présenter des puissances positives (signe plus) ou négatives (signe moins). Étant donné qu'une puissance positive pourra grossir l'image d'un objet et qu'une puissance négative pourra la diminuer, il est souvent possible de dire si un verre est positif ou négatif simplement en regardant à travers.
 Les verres convexes forcent les rayons lumineux à converger et les verres concaves à diverger. Un verre négatif accolé à un verre positif donne un système optique avec une puissance égale à la somme des deux verres, ainsi un verre de −2,0 D combiné à un verre de +5,0 D forme un système dioptrique de +3,0 D.
 Par convention, les verres positifs sont généralement dessinés comme convexes de chaque côté; les verres négatifs sont généralement dessinés comme concaves de chaque côté. Dans un système optique réel, la meilleure qualité optique est habituellement atteinte quand la plupart des rayons lumineux sont approximativement perpendiculaires (i.e., au bon angle) à la surface du verre. Dans le cas d'un verre correcteur, cela signifie que le verre devrait être taillé plus ou moins avec la face plus creuse vers l’œil, c'est pourquoi la forme de la plupart des verres correcteurs est celle d'un verre ménisque.
-La caractéristique la plus importante d'un verre est sa distance focale principale, ou son contraire qui est appelé puissance du verre. La longueur focale principale d'un verre est déterminée par son indice de réfraction, les rayons de courbure des deux surfaces, et le milieu où se trouve le verre. Pour deux verres minces convexes accolés, tous les rayons parallèles devraient être focalisés sur un point connu comme le foyer principal. La distance entre le verre et ce point est la longueur focale principale du verre. Pour deux verres minces concaves accolés où les rayons divergent, la longueur focale principale est la distance à laquelle les rayons projetés en arrière devraient entrer ensemble et est de signe négatif. Pour un verre épais fait avec des surfaces sphériques, la distance focale sera différente à cause de différents rayons, et ce changement est appelé aberration sphérique. La longueur focale pour différentes longueurs d'onde sera aussi légèrement différente, et ceci sera appelé aberration chromatique[2].
+La caractéristique la plus importante d'un verre est sa distance focale principale, ou son contraire qui est appelé puissance du verre. La longueur focale principale d'un verre est déterminée par son indice de réfraction, les rayons de courbure des deux surfaces, et le milieu où se trouve le verre. Pour deux verres minces convexes accolés, tous les rayons parallèles devraient être focalisés sur un point connu comme le foyer principal. La distance entre le verre et ce point est la longueur focale principale du verre. Pour deux verres minces concaves accolés où les rayons divergent, la longueur focale principale est la distance à laquelle les rayons projetés en arrière devraient entrer ensemble et est de signe négatif. Pour un verre épais fait avec des surfaces sphériques, la distance focale sera différente à cause de différents rayons, et ce changement est appelé aberration sphérique. La longueur focale pour différentes longueurs d'onde sera aussi légèrement différente, et ceci sera appelé aberration chromatique.
 </t>
         </is>
       </c>
@@ -636,7 +654,9 @@
           <t>Verres sphériques et puissance sphérique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Habituellement:
 la composante sphérique est la correction principale
@@ -670,7 +690,9 @@
           <t>Verres cylindriques et puissance cylindrique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les surfaces d'un verre cylindrique sont des portions de cylindre. Par conséquent, ce verre réfracte la lumière. Quand un verre cylindrique agit comme grossissant, il grossit dans une seule direction. Par exemple, le grossissement montre des lettres grossies uniquement en hauteur et non en largeur. De même, quand un verre cylindrique met un système optique en défocalisation et provoque du flou, le flou ne se produit que dans un seul méridien.
 Quand un réfractionniste fait un examen de vue —une procédure appelée réfraction— il commence habituellement par déterminer la meilleure correction sphérique. S'il existe un astigmatisme, l'étape suivante est de le compenser en ajoutant la bonne correction cylindrique.
@@ -702,7 +724,9 @@
           <t>Axe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les verres à puissance sphérique ont la même puissance dans tous les méridiens, comme +1,00 D, ou −2,50 D. Un verre cylindrique a une puissance réfractive dans une seule direction. L'orientation de cette puissance est indiquée sur la prescription par un axe.
 L'axe décrit l'orientation de l'axe du verre cylindrique en degrés et varie de 1 à 180°, depuis la ligne horizontale quand le réfractionniste prend les mesures, c'est-à-dire quand on regarde le patient, donc du côté face externe du verre.
@@ -735,7 +759,9 @@
           <t>Équivalent sphérique de réfraction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les réfractionnistes utilisent le terme équivalent sphérique pour faire référence à la puissance de focalisation effective de l'œil si seules existent des aberrations sphériques. Il peut être défini ainsi:
         S
@@ -778,7 +804,9 @@
           <t>Vision de loin et vision de près</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La VL indiquée sur la prescription indique la correction nécessaire pour voir net au loin. Pour la plupart des individus âgés de moins de quarante ans, seule cette partie est remplie. La VP est utilisée pour la prescription de verres double foyer ou progressifs, nécessaires pour corriger la presbytie.
 Jusqu'à quarante ans, le cristallin de l’œil est assez souple et élastique pour accommoder, en se dilatant ou en se rétractant, à toutes les distances. Avec l'âge le cristallin durcit et devient de moins en moins apte à accommoder. Ce phénomène est appelé presbytie.
@@ -814,7 +842,9 @@
           <t>Axe optique et axe visuel</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L'axe optique est le centre du verre où passe la lumière et où elle n'est pas déviée. L'axe visuel est l'endroit où la lumière passe à travers l’œil jusqu'à la rétine et où il est admis qu'elle n'est pas déviée.
 Il arrive parfois que les verres correcteurs soient donnés avec l'axe optique différent de l'axe visuel. Ceci crée un effet prismatique. Les prismes peut être utilisés pour diagnostiquer et traiter les problèmes de la vision binoculaire et d'autre problèmes orthoptiques qui causent la diplopie tels que:
@@ -847,7 +877,9 @@
           <t>Variantes dans la rédaction d'une prescription</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand aucune correction n'est requise, la puissance sphérique peut être transcrite comme 0,00 ou plano (pl.) ou afocal. Dans ce cas le verre n'a aucune puissance réfractive.
 Quand une correction cylindrique est nécessaire pour corriger l'astigmatisme, deux façons de l'écrire sont possibles, soit en notation « cyl + », soit en « cyl - », selon que l'axe choisi est en correction cylindrique positive ou négative.
@@ -856,7 +888,7 @@
 la notation en cyl+ donne une correction (hypermétropie) de +2,00 D et une seconde correction (astigmatisme) de +1,00 D le long d'un axe de 150°
 la notation en cyl- donne une correction (hypermétropie) de +3,00 D et une seconde correction (astigmatisme) de −1,00 D le long d'un axe de 60°
 On peut noter que les deux notations conduisent à un même équivalent sphérique de +2,50 D.
-La conversion d'une notation à l'autre, est une opération dénommée transposition[4]. En notant ' les valeurs dans l'autre notation, la relation est la suivante[5] (disponible en ligne ici[6]):
+La conversion d'une notation à l'autre, est une opération dénommée transposition. En notant ' les valeurs dans l'autre notation, la relation est la suivante (disponible en ligne ici):
 Sphere' = Sphere + Cylindre
 Cylindre' = - Cylindre
 Axe'=Axe + 90°
